--- a/Donnee/Personnage/NmbrdePerso.xlsx
+++ b/Donnee/Personnage/NmbrdePerso.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\assef\OneDrive\Bureau\1HEIG\semetre 2\VisualDonne\Projet\Donnee\Personnage\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\assef\OneDrive\Bureau\1HEIG\semetre 2\VisualDonne\Projet\Site\Donnee\Personnage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{48DFC95E-8E31-4252-8607-D6981908936C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D41DEEC1-B5B3-4F07-927B-094632251FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6252" yWindow="4668" windowWidth="14256" windowHeight="12528" xr2:uid="{F5B562AF-FDDC-4723-834D-C468F2CD4B28}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{F5B562AF-FDDC-4723-834D-C468F2CD4B28}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,16 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Groupe de personnages</t>
-  </si>
-  <si>
-    <t>Nombre de personnages</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Shichibukai</t>
   </si>
@@ -60,6 +51,12 @@
   </si>
   <si>
     <t>Personne total</t>
+  </si>
+  <si>
+    <t>Groupe_de_personnages</t>
+  </si>
+  <si>
+    <t>Nombre_de_personnages</t>
   </si>
 </sst>
 </file>
@@ -519,66 +516,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE838C02-E0D3-4561-8CD4-C41F3AEBA76C}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.44140625" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="42" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B3" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="B4" s="4">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="3" t="s">
+    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4">
-        <v>7</v>
+      <c r="B5" s="4">
+        <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="3" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="42" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="4">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="B6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="6">
+      <c r="B6" s="6">
         <v>721</v>
       </c>
     </row>
